--- a/Output/eltiempo.xlsx
+++ b/Output/eltiempo.xlsx
@@ -481,12 +481,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Municipalities at risk by the Nevado del Ruiz volcano already have emergency stations</t>
+          <t>Municipalities at risk from the Nevado del Ruiz volcano already have emergency stations</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The inhabitants of the surrounding areas to the Nevado del Ruiz volcano already have four new public interest stations for disaster attention and prevention that were authorized by the Ministry of Information Technology and Communications of Colombia ICT.According to the entity, the objective of these tools is to provide the community in general communication channels that facilitate prevention and recovery prevention actions before a possible eruption of the Nevado del Ruiz volcano.Why the orange alert is maintained in the Nevado del Ruiz.Thus, the municipalities to which licenses were granted to provide the broadcasting service were Casabianca Murillo Villahermosa and Santa Isabel in the department of Tolima the first three declared at high risk by the National Risk Management Unit.Nevado del Ruiz volcano from the Colombian Geological Service in Manizales Photo Colombian Geological Service.With the entry into operation of these stations we are giving the people of the region the possibility of receiving information on time about the state of emergency of the volcano the recommendations of the care and instructions organisms that will be key to avoiding a disaster and safeguarding liveswhich is our priority, said Minister Tic Mauricio Lizcano.A red alert can be unleashed in the Nevado del Ruiz volcano in the next few days.The licenses of the stations that will work in modulated FM or in modulated amplitude AM were issued in record time taking into account the importance of the service they will provide and the declaration of orange alert by the emergency.This was developed in a joint work with the National spectrum agency where the procedure could be advanced in less than a week and thus make effective communication possible because the SGC Colombian geological service warns that there is possibly an eruption of the volcano indays or weeks.Nevado del Ruiz volcano is still very unstable photo courtesy Colombian Geological Service.The concession licenses of the four stations were requested by the municipalities of the municipalities and will be responsible for their management administration and programming that must revolve around issues related to the emergency by the Nevado del Ruiz volcano.Having this license is excellent news an issuer is the way people have to communicate through the radio we can inform what happens to the volcano permanently and immediately explained the mayor of Murillo Antonio José García.It is worth mentioning that the stations may work as long as the disaster or calamity situation in the municipalities where they can be extended as long as the need to have said communication channel for the recovery stage of aeventual emergency.REFERENCE IMAGE PHOTO GETTY IMAGESISTOCKPHOTO.In addition to these four stations, it is expected to deliver in the next few days the broadcasting license to the inhabitants of Herveo also in Tolima, however, the ICT Ministry continues waiting for the required documentation by the municipality.Thus, the expert asked not to stop paying attention to the information issued by the authorities.It is important to be very aware although it does not mean that at this time it will have to make an eruption but that these conditions sometimes make the authorities and the general community get used to certain levels of activity that are not normal you have to be veryAttentive to the official information of the Colombian Geological Service and the National Unit of this risk and in the same way with the local and departmental risk management authorities, John Makario Londoño Technical Director of Geoamenazas of the SGC said</t>
+          <t>The inhabitants of the areas surrounding the Nevado del Ruiz volcano already have four new stations of Public Interest of Attention and Disaster Prevention that were authorized by the Ministry of Information Technologies and Communications of Colombia TIC. According to the entity, the objective of these tools is to provide the community in general with communication channels that facilitate prevention, care and recovery actions in the event of a possible eruption of the Nevado del Ruiz volcano. Why the orange alert is maintained in Nevado del Ruiz. Thus, the municipalities that were granted licenses to provide the broadcasting service were Casabianca Murillo Villahermosa and Santa Isabel in the department of Tolima, the first three declared at high risk by the National Risk Management Unit. Nevado del Ruiz volcano from the Colombian Geological Service in Manizales Photo Colombian Geological Service. With the entry into operation of these stations, we are giving the people of the region the possibility of receiving timely information on the state of the volcano's emergency, the recommendations of the attention agencies and instructions that will be key to avoiding a disaster and safeguarding lives. that it is our priority, affirmed the ICT Minister Mauricio Lizcano. A red alert may be unleashed in the Nevado del Ruiz Volcano in the coming days. The licenses of the stations that will operate in FM Modulated Frequency or AM Modulated Amplitude were issued in record time, taking into account the importance of the service they will provide and the orange alert declaration due to the emergency. This was developed in a joint effort with the National Spectrum Agency where the process could be advanced in less than a week and thus make effective communication possible because the Colombian Geological Service SGC warns that there may be an eruption of the volcano in days or weeks. Nevado del Ruiz volcano is still very unstable Photo Courtesy Colombian Geological Service. The concession licenses of the four stations were requested by the mayors of the municipalities and these will be responsible for their management, administration and programming, which should revolve around issues related to the emergency caused by the Nevado del Ruiz volcano. Having this license is excellent news. A station is the way people have to communicate through the radio, we can inform what happens with the volcano permanently and immediately, explained the mayor of Murillo, Antonio José García. It is worth mentioning that the stations will be able to operate while the declaration of disaster or calamity is maintained in the municipalities where they operate, a time that may be extended as long as the need to have said communication channel for the recovery stage of a eventual emergency. Reference image Photo Getty ImagesiStockphoto. In addition to these four stations, it is expected to deliver the broadcasting license to the residents of Herveo in the next few days, also in Tolima. However, the ICT Ministry continues to await the documentation required by the municipality. Thus, the expert asked not to stop paying attention to the information issued by the authorities. It is important to be very vigilant, although it does not mean that at this moment there is going to be an eruption, but that these conditions sometimes make the authorities and the general community get used to certain levels of activity that are not normal. You have to be very attentive to the official information of the Colombian Geological Service and the National Unit of this risk and in the same way with the local and departmental authorities of Risk Management indicated John Makario Londoño technical director of geothreats of the SGC</t>
         </is>
       </c>
     </row>
@@ -499,12 +499,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Why the orange alert is maintained in the Nevado del Ruiz</t>
+          <t>Why the orange alert is maintained in Nevado del Ruiz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The SGC Colombian Geological Service continues to monitor the Nevado del Ruiz volcano because its level of activity continues in orange since this situation was reported in early April.For this reason, all the indicators analyzing the experts ratify that the activity of the volcanic building remains very unstable, however, this would have a logical explanation as John Makario Londoño Londoño was announced Technical Director of Geoamenazas of the SGC.A red alert can be unleashed in the Nevado del Ruiz volcano in the next few days.According to the entity, the activity of the volcano today May 8 is similar to that of Sunday, May 7 because some thermal anomalies that have reached greater values than those that have been detected in previous days have been detected.The activity of the volcano is still very unstable photo courtesy Mayor's Office of Manizales.Although there is a seismicity of fracture, this is in low quantity and low energy are usually located in the crater in its surroundings and what most predominates is that it remains the seismic activity associated with this fluid activity inside the crater especially the emission output of the emission ofGases and ash for the fumaroles that the volcano has and predominantly predominates thermal anomalies some of them with important values said Londoño.The Nevado del Ruiz volcano is heating more there are risks.This means that it is possible that the levels of seismic activity as well as the levels of ash of ash exit decrease or are oscillatory in the sense of increasing a few days and decreases others.The volcano continues at unstable levels and therefore this orange activity that is the probability of erupting in days or weeks therefore it is important to follow the recommendations The authorities detailed the technical director of Geoamenazas of the SGC.John Makario Londoño Technical Director of Geoamenazas of the Colombian Geological Service on the activity of the Nevado del Ruiz Video Video Capture Colombian Geological Service.It is worth mentioning that this same expert stressed in recent days that the activity of the volcano cannot become part of the landscape and that citizens should not get used to current conditions because they must keep in mind that they are still anomalous.He also said that the level of activity will remain as it is and explained why it will not vary at the moment also pointed out that calm can be a sign of an eruption even if it will not necessarily occur.This orange level will still persist because the volcano has not returned to the levels that had a second months ago we cannot change to red either because the eruption one does not know if it will happen or not really and third it is important to remember that sometimes the volcano hasShowed that when he calms long after having a seismic activity and another much higher type is when he has made eruptions he emphasized.VOLCÁN NEVADO DEL RUIZ IN MAY PHOTO COURTESY COLOMBIAN GEOLOGICAL SERVICE.In order for the level of activity to go to yellow, a prudential time has to spend where trends and patterns can be observed that allow inferring the possible decrease in activity which can be extended to several weeks.Thus, the expert asked not to stop paying attention to the information issued by the authorities, it is importantGeneral Community get used to certain levels of activity that I return and I repeat are not normal stressed the technical director of Geoamenazas of the SGC</t>
+          <t>The Colombian Geological Service SGC continues to monitor the Nevado del Ruiz volcano because its level of activity continues in orange since this situation was reported in early April. For this reason, all the indicators analyzed by the experts confirm that the activity of the volcanic edifice continues to be very unstable; however, this would have a logical explanation, according to John Makario Londoño, technical director of Geothreats of the SGC. A red alert may be unleashed in the Nevado del Ruiz Volcano in the coming days. According to the entity, the activity of the volcano as of today, May 8, is similar to that of Sunday, May 7, because some thermal anomalies have been detected that have reached values ​​higher than those that could have been detected in previous days. The activity of the volcano continues to be very unstable Photo Courtesy of the Mayor's Office of Manizales. Although there is fracture seismicity, this is in low quantity and low energy. Normally they are located in the crater in its surroundings and what most predominates is that the seismic activity associated with this activity continues to be fluids inside the crater, especially the emission outlet of gases and ash from the fumaroles that the volcano has and thermal anomalies predominate or continue to predominate, some of them with significant values, Londoño pointed out. The Nevado del Ruiz volcano is heating up, but there are risks. This means that it is possible that the levels of seismic activity as well as the levels of degassing or output of ash decrease or are oscillating in the sense of increasing on some days and decreasing on others. The volcano continues at unstable levels and therefore this orange activity, which is the probability that it will erupt in days or weeks, is maintained. That is why it is important to follow the recommendations of the authorities, explained the technical director of Geothreats of the SGC. John Makario Londoño technical director of Geothreats of the Colombian Geological Service on the activity of the Nevado del Ruiz volcano Photo Video capture Colombian Geological Service. It is worth mentioning that this same expert stressed in days past that the activity of the volcano cannot become part of the landscape and that citizens should not get used to the current conditions, since they must bear in mind that they are still abnormal. He also affirmed that the level of activity will remain as it is and explained why it will not change at the moment. He also pointed out that calm can be a sign of an eruption although it will not necessarily occur. This orange level will still persist because the volcano has not returned to the levels it had a few months ago. Second, we cannot change to red either because the eruption one does not know if it will really happen or not, and third, it is important to remember that sometimes the volcano has shown that when it calms down long after having had seismic activity and another much higher type is when it has erupted, he emphasized. Nevado del Ruiz volcano in May Photo Courtesy Colombian Geological Service. For the level of activity to drop to yellow, a reasonable amount of time must pass where trends and patterns can be observed that allow us to infer the possible decrease in activity, which can last for several weeks. Thus, the expert asked not to stop paying attention to the information issued by the authorities. It is important to be very attentive, it does not mean that at this moment it is going to have to make an eruption, but rather that these conditions sometimes make the authorities and the general community get used to certain levels of activity that I return and repeat are not normal stressed the technical director of geothreats of the SGC</t>
         </is>
       </c>
     </row>
@@ -517,12 +517,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nevado del Ruiz volcano recommend continuing with prevention measures to the increase in earthquakes</t>
+          <t>Nevado del Ruiz volcano recommends continuing with prevention measures in the face of increased earthquakes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The SGC Colombian Geological Service continues to monitor the Nevado del Ruiz volcano due to the risk of eruption because its level of continuous activity in orangerash in days or weeks.Thus, the authorities pointed out in their most recent report that during May 8 and so far this Tuesday, May 9, the predominance of seismic activity related to the movement of fluids inside the volcanic ducts which presentsA slight increase in the number of earthquakes and the seismic energy released with respect to May 7.The activity of the volcano is still very unstable photo courtesy Mayor's Office of Manizales.Some seismic signals associated with this type of seismicity have been related to pulsatile ash emissions confirmed through the web cameras used for volcanic monitoring indicated the SGC.The Nevado del Ruiz volcano is heating more there are risks.It was detailed that during May 7 the seismic activity associated with rock fracturing within the volcanic building showed similar behavior in the number of registered earthquakes and in the seismic energy released compared to the previous day.The earthquakes were located in the Arenas crater and in a dispersed way around it at a maximum distance of 5 km and at depths between 1 and 6 km the statement indicates.With respect to the superficial activity the maximum height of the gase column I observed ash was 1000 m measured from the top of the volcano and was related to an ash emission recorded on May 8 at 727 p m.Snowy volcano of the Ruiz Reference image Photo courtesy Colombian Geological Service.The preferential dispersion direction of the gas column was to the southern and northwest west of the volcano from the satellite monitoring platforms several important thermal anomalies were observed at the bottom of the crater stressed the entity.On the other hand, the variations in the tear of sulfur dioxide and the water vapor exit from the crater to the atmosphere are the indicators, they ratify that the activity of the Nevado of the Ruiz remains very unstable and that it is necessary to continue with the measuresPrevention pointed to the SGC.A red alert can be unleashed in the Nevado del Ruiz volcano in the next few days.Thus, things may be that the levels of seismic activity as well as the levels of ash of ash exit decrease or oscillatory in the sense of increasing a few days and decreasing others, however, this does not imply that the volcano has returned to its normal levels ofActivity, so it is recommended not to get used to these oscillatory changes in activity and think that it is a normal volcano activity.This is the level of opacity in which the imposing snowy volcano of the Ruiz Photo Colombian Geological Service has remained.To change level and return at the yellow level, a prudential time is required where trends and patterns can be observed that allow the possible decrease in the activity that the current activity that the volcano still does not show for this reason from the SGC we warn that the level we noticed that the level we notice that the levelof activity of the Nevado del Ruiz volcano will remain at the orange level for several weeks during this time in the event that an acceleration of the processes that suggest an imminent eruption or that the eruption itself occurs in the level of activity will be changed to red ends.the notice.Given this, the Colombian Geological Service recommends the community in general to keep calm to follow all the instructions of the National Unit for Disaster Risk Management UNRGRD and ask local authorities to be attentive to the information provided on the evolution of the state of the volcano</t>
+          <t>The Colombian Geological Service SGC continues to monitor the Nevado del Ruiz volcano due to the risk of eruption due to the fact that its level of activity continues in orange. All the indicators that the experts analyze confirm that the activity of the volcanic edifice continues to be very unstable but with the probability that it will eruption in days or weeks. Thus, the authorities indicated in their most recent report that during May 8 and so far this Tuesday, May 9, the predominance of seismic activity related to the movement of fluids within the volcanic conduits continues, which presents a slight increase in the number of earthquakes and in the seismic energy released compared to May 7. The activity of the volcano continues to be very unstable Photo Courtesy of the Mayor's Office of Manizales. Some seismic signals associated with this type of seismicity have been related to pulsatile ash emissions confirmed through the web cameras used for volcanic monitoring, the SGC indicated. The Nevado del Ruiz volcano is heating up, but there are risks. It was possible to detail that during May 7 the seismic activity associated with rock fracturing within the volcanic edifice showed a similar behavior in the number of registered earthquakes and in the seismic energy released compared to the previous day. The earthquakes were located in the Arenas crater and scattered around it at a maximum distance of 5 km and at depths between 1 and 6 km, the statement said. Regarding surface activity, the maximum height of the column of gases and/or ash observed was 1000 m measured from the top of the volcano and was related to an ash emission recorded on May 8 at 727 pm. Nevado del Ruiz volcano Reference image Photo Courtesy Colombian Geological Service. The preferential dispersion direction of the gas column was towards the west, southwest and northwest of the volcano. From the satellite monitoring platforms, several important thermal anomalies were observed at the bottom of the crater, the entity stressed. On the other hand, the variations in the degassing of sulfur dioxide and the release of water vapor from the crater into the atmosphere are maintained. These indicators confirm that the activity of the Nevado del Ruiz volcano continues to be very unstable and that it is necessary to continue with the measures of prevention pointed out the SGC. A red alert may be unleashed in the Nevado del Ruiz Volcano in the coming days. Thus, it is possible that the levels of seismic activity as well as the levels of degassing or ash output decrease or are oscillating in the sense of increasing on some days and decreasing on others. However, this does not imply that the volcano has returned to its normal levels of activity, so it is recommended not to get used to these oscillating changes in activity and think that it is a normal activity of the volcano. This is the level of opacity in which the imposing Nevado del Ruiz volcano has remained Photo Servicio Geológico Colombiano. To change the level and return to the yellow level, a prudential time is required where trends and patterns can be observed that allow us to infer the possible decrease in activity, aspects that the current activity of the volcano does not yet show. For this reason, from the SGC we warn that the level of activity of the Nevado del Ruiz volcano will remain in orange level for several weeks. During this time, in the event that there is an acceleration of the processes that suggest an imminent eruption or that the eruption itself occurs, the activity level will change to red ends the notice. Given this, the Colombian Geological Service recommends that the community in general remain calm, follow all the instructions of the National Unit for Disaster Risk Management, UNGRD, and asks local authorities to be attentive to the information provided on the evolution of the state of the volcano.</t>
         </is>
       </c>
     </row>
@@ -535,12 +535,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nevado del Ruiz volcano why you don't have to relax and what has to happen to lower the level of activity</t>
+          <t>Nevado del Ruiz volcano why you shouldn't relax and what has to happen for the level of activity to drop</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Although more than a month has passed since the level of activity of the Nevado Volcano del Ruiz has risen to orangeSGC.In that sense John Makario Londoño Technical Director of Geoamenazas of the SGC said that the activity of the volcano cannot become part of the landscape and that citizens should not get used to current conditions because it must be kept in mind that they are still anomalous.It is important to remember that one cannot get used to what is not normal. The volcano is not normal or the volcano has an activity that is too high but that with the days one is used to one that although ash comes out that will come backNormal assured.Nevado volcano of the Ruiz Government of Caldas adapts roads to evacuate in case there is eruption.And the thermal anomalies also continue at the bottom of the crater as they have seen this seismicity and this behavior in general has remained for several weeks in a very similar way this does not mean that the volcano already returned to its normal levels on the contrarySeismicity is still very high.John Makario Londoño Technical Director of Geoamenazas of the Colombian Geological Service Photo Colombian Geological Service.The expert states that the level of activity will remain as it is and explained why it will not vary at the moment also pointed out that calm can be a sign of an eruption even if it will not necessarily happen.VOLCÁN NEVADO DEL RUIZ on May 2 Photo Cortesía Colombian Geological Service.This orange level will still persist because the volcano has not returned to the levels that had a second months ago we cannot change to red either because the eruption one does not know if it will happen or not really and third it is important to remember that sometimes the volcanoHe has shown that when he calms long after he had a seismic activity and another much higher type is when he has erupted.Attentive this is what you should do before during and after the eruption of a volcano.In order for the level of activity to go to yellow, a prudential time has to spend where trends and patterns can be observed that allow inferring the possible decrease in activity which can be extended to several weeks.Thus, the expert asked not to stop paying attention to the information issued by the authorities.The SGC constantly monitors the activity of the Nevado Del Ruiz Volcano Photo Geological Service of Colombia.It is important to be very pending does not mean that at this time it will have to make an eruption but that these conditions sometimes make the authorities and the general community get used to certain levels of activity that I return and I repeat are not normal, we mustBe very attentive to the official information of the Colombian Geological Service and the National Unit of this risk and in the same way with the local and departmental authorities of Risk Management wrote</t>
+          <t>Although more than a month has passed since the level of activity of the Nevado del Ruiz volcano rose to orange, the probability that it will erupt more than it has in the last ten years is still latent, according to the Colombian Geological Service. SGC. In this sense, John Makario Londoño, technical director of geothreats of the SGC, said that the activity of the volcano cannot become part of the landscape and that citizens should not get used to the current conditions, since they must bear in mind that they are still anomalous. It is important to remember that one cannot get used to what is not normal, the volcano is not normal, that is, the volcano has a level of activity that is too high, but as days go by, one gets used to the fact that even if ash comes out, it will return. normal assured. Nevado del Ruiz Volcano Government of Caldas adapts ways to evacuate in case of an eruption. And he adds The thermal anomalies at the bottom of the crater also continue, as they have been able to see this seismicity and this behavior in general has remained for several weeks in a very similar way. This does not mean that the volcano has already returned to its normal levels, on the contrary, this seismicity is still very high. John Makario Londoño technical director of geohazards of the Colombian Geological Service Photo Colombian Geological Service. The expert affirms that the level of activity will remain as it is and explained why it will not change at the moment. He also pointed out that calm may be a sign of an eruption although it is not necessarily going to occur. Nevado del Ruiz volcano on May 2 Photo Courtesy Colombian Geological Service. This level of orange will still persist because the volcano has not returned to the levels it had a few months ago. Second, we cannot change to red either because the eruption does not really know if it is going to happen or not, and third, it is important to remember that sometimes the volcano It has shown that when it calms down long after having had seismic activity and another much higher type is when it has made eruptions it emphasizes. Attention this is what you should do before during and after the eruption of a volcano. For the level of activity to drop to yellow, a reasonable amount of time must pass where trends and patterns can be observed that allow us to infer the possible decrease in activity, which can last for several weeks. Thus, the expert asked not to stop paying attention to the information issued by the authorities. The SGC constantly monitors the activity of the Nevado del Ruiz volcano Photo Geological Service of Colombia. It is important to be very attentive, it does not mean that at this moment there is going to be an eruption, but that these conditions sometimes make the authorities and the general community get used to certain levels of activity that I return and repeat are not normal. be very attentive to the official information of the Colombian Geological Service and the National Unit of this risk and in the same way with the local and departmental authorities of Risk Management noted</t>
         </is>
       </c>
     </row>
@@ -553,12 +553,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nevado volcano of the Ruiz Government of Caldas adapts roads to evacuate in case there is eruption</t>
+          <t>Nevado del Ruiz Volcano Government of Caldas adapts routes to evacuate in case of an eruption</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>The Caldas Government remains working continuously and jointly through the Ministry of Infrastructure with the municipal authorities of Villamaría and Neira in addition to the National Army the National Institute of Roads Invías and the community that lives in the vicinity of the Nevado del Ruiz volcano with theobjective of guaranteeing the inhabitants of these sectors evacuation roads in case of a possible eruption.We are in the period of enlistment by worrying signals of the Nevado volcano of the Ruiz Director of Risk Management.Periodic maintenance has been carried out in these road axes today there are 20 kilometers intervened by the machinery combo that the departmental government Villamaría El Parnaso is willCaldas infrastructure.The Nevado del Ruiz has jurisdiction in Villamaría Caldas Murillo Vista Hermosa and Casabianca Tolima Photo Archive Week.Intervened routes and sectors.The banishment is hit by the web of the Condor Route 50 meters served.The Montenegro Playa Larna Sector Parnasso Montenegro 35 kilometers served.Gallinazo the Luis Prieto Ramal Tree 700 meters served.Villamaría Chupaderos Gallinazo 200 meters served.Villamaría El Parnaso La Zulia Campo Alegre sectors Villamaría La Guayana Potosí Campoalegre 1462 kilometers served.Caldas governorate attends the evacuation routes surrounding the Nevado del Ruíz volcano.The combos of machinery in the road areas mentioned have been advancing works and activities of maintenance of hydraulic works and reconformation of gutters in addition to supply and compacted of affirmed among others.With seismicity and ash has been the snowy volcano of the Ruiz Photo SGC.Jorge Orbay Marín Mayor of Villamaría highlighted in this regard we are achieving some totally passable roads that, although winter we have affected us we have taken some strategies.The Nevado del Ruiz volcano is heating more there are risks.In turn, Alexander Mendieta inhabitant of the Long Beach sector specified the changes that have been seen on the roads are now delayed by lowering Villamaría without a doubt, the work of the machinery is noticed.Panorama of the Nevado del Ruiz volcano this Monday, May 8.More than a month and a week after activated the orange alert by the activity in the snowy volcano of the reuiz the Colombian geological service reported that the seismic activity related to the movement of fluids inside the volcanic ducts persists this seismicity has presented a slightIncrease in the number of earthquakes and the seismic energy released compared to the immediately previous weekend.Some of these signs have been related to ash pulsatile emissions confirmed through the web chambers used for volcanic monitoring in parallel continues the seismicity record associated with rock fracturing inside the volcanic building which showed similar behavior in theNumber of earthquakes and seismic energy compared to the previous day May 6.Nevado del Ruiz volcano has had frequent and unstable activity photo courtesy Colombian Geological Service.The earthquakes were located in the Arenas Crater and in a dispersed way around it at a maximum distance of 6 km and at depths between 1 and 5 km these indicators ratify that the activity of the Nevado del Ruiz volcano remains very unstable and that it is necessary to continue withPrevention measures.It is possible that the levels of seismic activity as well as the levels of the degasification or exit of ash decrease or oscilatory in the sense of increasing a few days and decreasing others, however, this does not imply that the volcano has returned to its normal levels of activity due to thethat it is recommended not to get used to these oscillatory changes of activity and think that it is a normal volcano activity</t>
+          <t>The Government of Caldas continues to work continuously and jointly through the Infrastructure Secretariat with the municipal authorities of Villamaría and Neira, as well as the National Army, the National Institute of Invías and the community that lives in the vicinity of the Nevado del Ruiz volcano with the objective of guaranteeing the inhabitants of these sectors evacuation roads in case of a possible eruption. We are in the enlistment period due to worrying signs of the Nevado del Ruiz volcano, Director of Risk Management. Periodic maintenance has been carried out on these road axes Today there are already 20 kilometers intervened by the combo of machinery that the Departmental Government has arranged Villamaría El Parnaso La Zulia is the road corridor in which we have been working, said César Alberto Gómez Bueno, secretary of Caldas infrastructure. The Nevado del Ruiz has jurisdiction in Villamaría Caldas Murillo Vista Hermosa and Casabianca Tolima Photo Archive Semana. Routes and sectors intervened. The Banishment The Batea The Cobweb Route of the Condor 50 meters attended. El Parnaso Montenegro Playa Larga Parnaso Montenegro sector 35 kilometers served. Gallinazo El Arbolito branch Luis Prieto 700 meters served. Villamaría Chupaderos Gallinazo 200 meters served. Villamaría El Parnaso La Zulia Campo Alegre sectors Villamaría La Guayana Potosí Campoalegre 1462 kilometers served. The Caldas Government attends to the evacuation routes that surround the Nevado del Ruíz Volcano. The machinery combos in the aforementioned road areas have been carrying out maintenance works and activities for hydraulic works and reconformation of ditches, as well as supply and compaction of affirmed, among others. With seismicity and ash has been the volcano Nevado del Ruiz Photo SGC. Jorge Orbay Marín, mayor of Villamaría, highlighted in this regard. We have managed to leave some roads fully passable and, although winter has affected us, we have adopted some strategies. The Nevado del Ruiz volcano is heating up, but there are risks. In turn, Alexander Mendieta, an inhabitant of the Playa Larga sector, specified that the changes that have been seen on the roads are noticeable, now we take less time going down to Villamaría, without a doubt the work of the machinery is noticeable. Panorama of the Nevado del Ruiz Volcano this Monday, May 8. More than a month and a week after the orange alert was activated due to the activity in the Nevado del Reuiz Volcano, the Colombian Geological Service reported that the seismic activity related to the movement of fluids inside the volcanic conduits persists. This seismicity has presented a slight increase in the number of earthquakes and the seismic energy released compared to the immediately previous weekend. Some of these signals have been related to pulsatile ash emissions confirmed through the web cameras used for volcanic monitoring. In parallel, the record of seismicity associated with rock fracturing inside the volcanic edifice continues, which showed a similar behavior in the number of earthquakes and seismic energy compared to the day before May 6. Nevado del Ruiz volcano has had frequent and unstable activity Photo Courtesy Colombian Geological Service. The earthquakes were located in the Arenas crater and scattered around it at a maximum distance of 6 km and at depths between 1 and 5 km. These indicators confirm that the activity of the Nevado del Ruiz volcano continues to be very unstable and that it is necessary to continue with prevention measures. It is possible that the levels of seismic activity, as well as the levels of degassing or ash output, may decrease or be oscillating in the sense of increasing on some days and decreasing on others. However, this does not imply that the volcano has returned to its normal levels of activity for the that it is recommended not to get used to these oscillating changes in activity and to think that it is a normal activity of the volcano</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Since March 30, the Nevado del Ruiz volcano is at a level of activity II that indicates probable eruption in the end of days or weeks the alert situation led to emergency agencies and authorities of the area of influence to begin the activation ofEmergency plans.The process advances with the realization of censuses the preventive evacuation of the inhabitants of the area of influence in the departments of Caldas Quindío Risaralda and Tolima and the transfer of minors to safe areas where relatives.Throughout this process the visit to the area of influence includes the delivery of emergency kits and education days to the community but knows what to do in case of an emergency for eruption of the Nevado del Ruiz volcano depending on the area in which it is located.Villagers living near the Nevado del Ruiz Photo Colprensa.Faced with this issue there are several fundamental recommendations that relief agencies such as Firefighters Red Cross and Civil Defense deliver to the community and that are of universal application. The first thing to do is have prepared an emergency kit, it must contain.First aid kit with bandages for minor cuts gauze dressing tips and scissors and antibiotic ointment.Non -perishable foods such as protein bars Dry cereals Granola peanut butter Dry fruit meats canned fruits and vegetables pasteurized milk and fruit juices.Drinking water.Face mask.The beneficiaries are inhabitants of the rural area of Villamaría Caldas Photo courtesy of Caldas.Battery radio or crank.Lantern with spare batteries.Safety glasses.The prescription medications for family members and analgesics for the stomach and allergies.Can opener.Health and personal hygiene items.Cell phone chargers.Extra cash.Blankets or sleeping bags.The Nevado del Ruiz volcano is heating more there are risks.Before the eruption.Identify whether in your community there is volcanic threat and try not to be within your area of influence.Be alert to the instructions given by the authorities and follow the recommendations.Place adhesive tape in the windows due to shock waves that explosions can cause.Cover the water tanks to avoid contamination by the ash fall.Find out and have identified the evacuation route that must be followed.Verify the most appropriate and less exposed evacuation route for the effects of the eruption, these must be oriented to higher lands.Protect animals away from pets and grazing animals from the areas near the rivers.Manizales began with the call chain to the vulnerable population Photo Magda Jimena Ríos Bedoya.During a volcanic eruption.Keep calm.Look for shelter on a roof if you do not find it, try to breathe through a moistened water or vinegar fabric to avoid the passage of gases and volcanic dust.Protect your eyes closing them as much as possible wear protective glasses.If the authorities decide to establish the evacuation, take the family luggage that has already prepared limiting the luggage to what each person can transport by hand.Nevado del Ruiz volcano The ashes are harmful to health.Although the eruption seems quiet, he does not approach the volcano.Look for protection to higher places and do not remain near rivers or streams.Look well in the water stream and the material that transports before crossing a bridge.Disconnect electricity and close water and gas keys.Increase in cloudiness probability of low density rains and mostly cloudy sky Photo Cutsam Ideam is foreseen.Use the phone as much as possible and close the house very well when leaving it.If you are surprised by a gase cloud, protect yourself with a moistened fabric in water or vinegar.If you have knowledge of a slip or any other novelty with the tributaries or the slopes that it generates alert you must immediately inform the authorities and the neighbors.After the eruption.Stay in a safe place until the authorities report the measures to follow.Keep in mind that the accumulation of volcanic matter on roofs can generate its collapse</t>
+          <t>Since March 30, the Nevado del Ruiz volcano has been at level II activity, indicating a probable eruption in a matter of days or weeks. The alert situation led emergency agencies and authorities in the area of ​​influence to begin activating emergency plans. The process advances with the carrying out of censuses, the preventive evacuation of the inhabitants of the area of ​​influence in the departments of Caldas, Quindío, Risaralda and Tolima, and the transfer of minors to safe areas with relatives. Throughout this process, the visit to the area of ​​influence includes the delivery of emergency kits and educational sessions for the community. . Residents living near the Nevado del Ruiz Photo Colprensa. Faced with this issue, there are several fundamental recommendations that relief agencies such as Red Cross Firefighters and Civil Defense deliver to the community and that are universally applicable. The first thing to do is have an emergency kit prepared. This must contain. First aid kit with bandages for minor cuts, gauze bandage, adhesive tape, tweezers and scissors, and antibiotic ointment. Non-perishable foods such as protein bars dry cereals granola peanut butter dried fruit meats canned fruits and vegetables pasteurized milk and fruit juices. Drinking water. Face mask. The beneficiaries are inhabitants of the rural area of ​​Villamaría Caldas Photo Courtesy of the Government of Caldas. Battery or crank radio. Flashlight with spare batteries. Safety glasses. Prescription medications for family members and pain relievers, stomach and allergy remedies. Can opener. Sanitary and personal hygiene items. Cell phone chargers. Extra cash. Blankets or sleeping bags. The Nevado del Ruiz volcano is heating up, but there are risks. Before the eruption. Identify if there is a volcanic threat in your community and try not to locate yourself within its area of ​​influence. Be alert to the instructions given by the authorities and follow the recommendations. Tape up windows because of the shock waves that explosions can cause. Cover water tanks to avoid contamination from falling ash. Find out and identify the evacuation route you must follow. Check the most appropriate evacuation route and least exposed to the effects of the eruption. These must be oriented to higher ground. Protect Animals Keep pets and grazing animals away from areas near rivers. Manizales began with the chain of calls to the vulnerable population Photo Magda Jimena Ríos Bedoya. During a volcanic eruption. Keep calm. Seek shelter indoors if you cannot find it, try to breathe through a cloth moistened with water or vinegar to avoid the passage of gases and volcanic dust. Protect your eyes by closing them as much as possible Wear safety glasses. If the authorities decide to establish the evacuation, take the family luggage that you have already prepared, limiting the luggage to what each person can carry by hand. Nevado del Ruiz Volcano ashes are harmful to health. Even if the eruption seems calm to you, do not approach the volcano. Seek protection towards higher places and do not stay near rivers or streams. Look carefully at the flow of water and the material you are carrying before crossing a bridge. Disconnect electrical power and close the water and gas faucets. Cloudiness is expected to increase, probability of low-density rains and mostly cloudy skies Photo Courtesy IDEAM. Use the telephone as little as possible and close the house very well when leaving it. If you are surprised by a cloud of gases, protect yourself with a cloth moistened with water or vinegar. If you are aware of a landslide or any other development with tributaries or slopes that generates an alert, you must immediately inform the authorities and neighbors. After the eruption. Stay in a safe place until the authorities report the measures to follow. Keep in mind that the accumulation of volcanic matter on the roofs can cause their collapse</t>
         </is>
       </c>
     </row>
@@ -589,12 +589,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>The Nevado del Ruiz volcano is heating more there are risks</t>
+          <t>The Nevado del Ruiz volcano is heating up more there are risks</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>The director of Geoamenazas of the Colombian Geological Service SGC John Makario Londoño delivered a new report on the behavior of the Nevado del Ruiz volcano that threatens to erupt for a month in term of days or weeks.The tremors associated with the fracturing of rock and the movement of fluids inside the volcanic ducts are also identified, a gase and ash column that reached a height of 1800 meters measured from the top of the Ruiz was also identified.Attentive they reduce the perimeter of risk by possible eruption of the Nevado del Ruiz volcano.Several important thermal anomalies were observed from the satellite monitoring platforms at the bottom of the crater whose values are higher of those reported in recent days and similar to those presented in 2015, the official explained.Anomalies have been detected that have reached higher values than those that have been detected in previous days and similar to those that occurred with the location of the lava dome at the bottom of the crater exceeding up to 500 degrees.Nevado volcano of the Ruiz April 10 of 2023 730am at 25000 feet above the level of the MA photo supplied to week.This does not mean that the eruption is imminent on the contrary is one of the parameters that warns about the threat within the framework of the orange alert that translates into a possible emergency for its unstable activity as it happens since March 30.In other words, the anomalies that the crater bottom has is an expected element in the middle of the attention that there are these anomalies although they are greater than those that have occurred in these previous days does not mean that the volcano is in an imminent eruption clarified.Possible eruption of the Nevado del Ruiz volcano here are the cities and municipalities that would be most affected by an emergency.With all this Londoño added that it is important to continue with the constant monitoring and follow the recommendations of the local authorities the National Unit for Disaster Risk Management and the Colombian Geological Service.Nevado del Ruiz volcano The ashes are harmful to health.The Nevado del Ruiz volcano continues on orange alert due to the probability of erupting in the term of days or weeks its unstable activity has been manifested with anomalies at the bottom of the crater increase in earthquakes and continuous emission of ashes. The Colombian geological service explained the scopeand complications of the last phenomenon.In the first place, he defined that this type of particles with a size less than two millimeters can be glass rocks or mineral crystals The combination can vary depending on the type of volcano and eruption according to the suspicions of the experts, one of the emergencies could occur very soonlarger of the last ten years.Activity of the Nevado del Ruiz volcano this April 10 Photo Cortesía Colombian Air Force.Ash is the result of the behavior that occurs in this case inside the Nevado del Ruiz in an eruptive process the pressure of the magma and its gases can fragment the rock inside the volcano in pieces These fragments come out at high speed through the craterand have fallen into several regions of the coffee axis.Its fall has favorable points for the environment, for example, its accumulation on Earth can enrich the minerals available on the ground since in its composition the magnesium and potassium sodium abounds that are fundamental elements for plants on the other hand, it was evidenced thatYes there are health complications.View of the Nevado del Ruiz volcano this Wednesday, April 26, Courtesy of Colombian Geological Service.This was detailed by the Colombian geological service large amounts of ash in the atmosphere can affect the quality of water and air and generate harmful effects on the respiratory system, this depends on the proximity to the volcano and the direction of its dispersion often the phenomenon is feltin the department of Caldas and Tolima.The Ministry of Health explained that due to the fall of this material the airways can be affected, so the use of the cappes is recommended if ocular symptoms are presented such as irritation discomfort and tearing the entity suggested to perform careful washing with clean water for clean water forstop complications from ash</t>
+          <t>The director of geothreats of the Colombian Geological Service SGC John Makario Londoño delivered a new report on the behavior of the Nevado del Ruiz volcano that has threatened to erupt for a month in terms of days or weeks. The tremors associated with the fracturing of rock and the movement of fluids within the volcanic conduits continue. A column of gases and ash was also identified that reached a height of 1800 meters measured from the top of Ruiz. Attentively, they reduce the risk perimeter due to a possible eruption of the Nevado del Ruiz volcano. From the satellite monitoring platforms, several important thermal anomalies were observed at the bottom of the crater whose values ​​are higher than those reported in recent days and similar to those presented in 2015. This was explained by the official. Some anomalies have been detected that have reached values ​​greater than those that have been detected in previous days and similar to those that occurred with the location of the lava dome at the bottom of the crater, exceeding up to 500 degrees. Nevado del Ruiz Volcano April 10, 2023 730am at 25,000 feet above sea level Photo Provided per Week. This does not mean that the eruption is imminent. On the contrary, it is one of the parameters that warns about the threat in the framework of the orange alert that translates into a possible emergency due to its unstable activity as it has been since March 30. In other words, the anomalies that the bottom of the crater has is an expected element in the midst of the attention that there is. Although these anomalies are greater than those that have occurred in these previous days, it does not mean that the volcano is in an imminent eruption, he clarified. Possible eruption of the Nevado del Ruiz volcano Here are the cities and municipalities that would be most affected by an emergency. With all this, Londoño added that it is important to continue with constant monitoring and follow to the letter the recommendations of the local authorities, the National Unit for Disaster Risk Management and the Colombian Geological Service. Nevado del Ruiz Volcano ashes are harmful to health. The Nevado del Ruiz volcano remains on orange alert due to the probability of erupting within days or weeks Its unstable activity has manifested itself with anomalies in the bottom of the crater, an increase in earthquakes and continuous ash emission The Colombian Geological Service explained the scope and complications of the latter phenomenon. In the first place, it defined that this type of particles with a size smaller than two millimeters can be glass rocks or mineral crystals The combination may vary depending on the type of volcano and eruption According to the suspicions of the experts, one of the emergencies could occur very soon largest in the last ten years. Activity of the Nevado del Ruiz volcano on April 10 Photo Courtesy Colombian Air Force. The ash is the result of the behavior that occurs in this case inside the Nevado del Ruiz. In an eruptive process, the pressure of the magma and its gases can fragment the rock inside the volcano into pieces. These fragments come out at high speed through the crater. and have fallen in several regions of the Coffee Region. Its fall has favorable points for the environment. For example, its accumulation on the ground can enrich the minerals available in the soil, since sodium, magnesium and potassium abound in its composition, which are fundamental elements for plants. On the other hand, it was evidenced that yes there are health complications. View of the Nevado del Ruiz volcano this Wednesday, April 26 Photo Courtesy Colombian Geological Service. This was detailed by the Colombian Geological Service Large amounts of ash in the atmosphere can affect the quality of water and air and generate harmful effects on the respiratory system This depends on the proximity to the volcano and the direction of its dispersion The phenomenon is often felt in the department of Caldas and Tolima. The Ministry of Health explained that the fall of this material may affect the respiratory tract, so the use of a face mask is recommended. If eye symptoms such as irritation, discomfort and tearing occur, the entity suggested carrying out a careful wash with clean water to curb ash complications</t>
         </is>
       </c>
     </row>
@@ -607,7 +607,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Nevado del Ruiz Volcano The ashes are harmful to health</t>
+          <t>Nevado del Ruiz volcano the ashes are harmful to health</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -621,7 +621,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Attentive reduce the perimeter of risk by possible eruption of the Nevado del Ruiz volcano</t>
+          <t>Careful reduce the risk perimeter for possible eruption of the Nevado del Ruiz volcano</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -635,12 +635,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>The Nevado del Ruiz volcano remains unstable thus registered the authorities for their activity</t>
+          <t>The Nevado del Ruiz volcano remains unstable, this is how the authorities record its activity</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>The Colombian geological service advances in the 247 monitoring on the Nevado del Ruiz volcano that is at the level of orange activity or II which indicates probable eruption in term of days or weeks according to the declaration delivered since March 30</t>
+          <t>The Colombian Geological Service advances in monitoring 247 on the Nevado del Ruiz volcano, which is at orange or II activity level, which indicates a probable eruption in a term of days or weeks according to the declaration delivered since March 30.</t>
         </is>
       </c>
     </row>
@@ -653,12 +653,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Students from five schools will resume face -to -face classes after staying at home for the orange alert in the Nevado de Ruiz volcano</t>
+          <t>Students from five schools will resume face-to-face classes after staying at home due to the orange alert at the Nevado de Ruiz Volcano</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>After the orange alert declaration for the imminent risk of eruption of the Nevado del Ruiz volcano at least 30 educational institutions located in the area of influence decided to adopt the virtual classes modality as a preventive measure</t>
+          <t>After the declaration of an orange alert due to the imminent risk of eruption of the Nevado del Ruiz volcano, at least 30 educational institutions located in the area of ​​influence decided to adopt the modality of virtual classes as a preventive measure.</t>
         </is>
       </c>
     </row>
@@ -671,12 +671,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>The tremors in the Nevado del Ruiz volcano do not stop This is the new report of the Colombian Geological Service</t>
+          <t>The tremors in the Nevado del Ruiz volcano do not stop this is the new report of the Colombian Geological Service</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>The SGC Colombian Geological Service continues to monitor the Nevado del Ruiz volcano due to the risk of eruption because its level of continuous activity in orangeeruption in days or weeks</t>
+          <t>The Colombian Geological Service SGC continues to monitor the Nevado del Ruiz volcano due to the risk of eruption due to the fact that its level of activity continues in orange. All the indicators that the experts analyze confirm that the activity of the volcanic edifice continues to be very unstable but with the probability that it will rash over days or weeks</t>
         </is>
       </c>
     </row>
@@ -689,12 +689,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Tremor is recorded in the area of influence of the Nevado del Ruiz volcano</t>
+          <t>Tremor is registered in the area of ​​influence of the Nevado del Ruiz volcano</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>The Colombian Geological Service confirmed the occurrence of an earthquake with an epicenter in one of the municipalities located in the area of influence of the Nevado del Ruiz volcano</t>
+          <t>The Colombian Geological Service confirmed the occurrence of an earthquake with an epicenter in one of the municipalities located in the area of ​​influence of the Nevado del Ruiz volcano.</t>
         </is>
       </c>
     </row>
@@ -707,12 +707,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>A red alert can be unleashed in the Nevado del Ruiz volcano in the next few days</t>
+          <t>A red alert may be unleashed in the Nevado del Ruiz Volcano in the coming days</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>There are many concerns that arise between the community in relation to the activity of the Nevado del Ruiz volcano that is at the level of orange activity since March 30, 2023, so it has permanent monitoring by the Colombian Geological Service</t>
+          <t>There are many concerns that arise among the community in relation to the activity of the Nevado del Ruiz volcano, which has been at an orange level of activity since March 30, 2023, for which reason it has permanent monitoring by the Colombian Geological Service.</t>
         </is>
       </c>
     </row>
@@ -725,12 +725,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>The Nevado del Ruiz volcano has a slight increase in the seismic energy New Report of the Colombian Geological Service</t>
+          <t>The Nevado del Ruiz Volcano has a slight increase in seismic energy, a new report from the Colombian Geological Service</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>The SGC Colombian Geological Service continues to monitor the Nevado del Ruiz volcano due to the risk of eruption because its level of continuous activity in orangeeruption in days or weeks</t>
+          <t>The Colombian Geological Service SGC continues to monitor the Nevado del Ruiz volcano due to the risk of eruption due to the fact that its level of activity continues in orange. All the indicators that the experts analyze confirm that the activity of the volcanic edifice continues to be very unstable but with the probability that it will rash over days or weeks</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>The SGC Colombian Geological Service continues to monitor the Nevado del Ruiz volcano due to the risk of eruption because its level of continuous activity in orangeeruption in days or weeks</t>
+          <t>The Colombian Geological Service SGC continues to monitor the Nevado del Ruiz volcano due to the risk of eruption due to the fact that its level of activity continues in orange. All the indicators that the experts analyze confirm that the activity of the volcanic edifice continues to be very unstable but with the probability that it will rash over days or weeks</t>
         </is>
       </c>
     </row>
@@ -761,12 +761,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Nevado del Ruiz volcano detect a red light from the space of what it is</t>
+          <t>Nevado del Ruiz volcano detects a red light from space what it is about</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Satellite registered images highlighted a red point issued from the Nevado del Ruiz volcano whose activity remains on orange alert due to the risk of making the largest eruption of the last ten years in terms of days or weeks</t>
+          <t>Images recorded by satellites revealed a red dot emitted from the Nevado del Ruiz volcano whose activity remains on orange alert due to the risk of making the largest eruption in the last ten years in terms of days or weeks</t>
         </is>
       </c>
     </row>
@@ -779,12 +779,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>This is how the Nevado del Ruiz volcano is seen from space</t>
+          <t>This is what the Nevado del Ruiz volcano looks like from space</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>The SGC Colombian Geological Service made more than one delire with an image of the Nevado del Ruiz volcano from space</t>
+          <t>The Colombian Geological Service SGC made more than one delirious with an image of the Nevado del Ruiz volcano from space</t>
         </is>
       </c>
     </row>
@@ -797,12 +797,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>This is the snowy of the Ruiz the images of the volcano that already celebrates a month on orange alert</t>
+          <t>This is the Nevado del Ruiz, the images of the volcano that has been on orange alert for a month</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>A month after the increase in the level of activity of the Nevado from the Ruiz from Yellow to Orange, permanent monitoring of the volcanic building by the technicians and professionals of the SGC Colombian Geological Service is maintained</t>
+          <t>One month after the increase in the level of activity of the Nevado del Ruiz volcano from yellow to orange, permanent monitoring of the volcanic edifice is maintained by technicians and professionals from the Colombian Geological Service SGC</t>
         </is>
       </c>
     </row>
@@ -815,12 +815,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>The Nevado del Ruiz volcano continues to threaten with a new eruption report of the Colombian Geological Service</t>
+          <t>The Nevado del Ruiz volcano continues to threaten to erupt, a new report from the Colombian Geological Service</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>The Colombian Geological Service issued a new report on the behavior that the Nevado del Ruiz volcano had on Monday, which threatens to make the largest eruption of the last decade, so the orange alert is kept activated</t>
+          <t>The Colombian Geological Service issued a new report on the behavior of the Nevado del Ruiz volcano on Monday, May 1, which threatens to make the largest eruption in the last decade, which is why the orange alert remains active.</t>
         </is>
       </c>
     </row>
@@ -833,12 +833,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nevado del Ruiz volcano These are the municipalities that should immediately evacuate for possible eruption</t>
+          <t>Nevado del Ruiz Volcano these are the municipalities that should evacuate immediately due to possible eruption</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>A month from the orange alert declaration, the activity of the Nevado del Ruiz volcano continues to be very unstable, thermal anomalies also persist at the bottom of the crater which can be observed from satellite monitoring platforms as well as the shield of sulfur dioxide tothe atmosphere and the water vapor exit in the volcano</t>
+          <t>One month after the declaration of orange alert, the activity of the Nevado del Ruiz volcano continues to be very unstable, likewise thermal anomalies persist at the bottom of the crater, which can be observed from satellite monitoring platforms, as well as the degassing of sulfur dioxide to the atmosphere and the outflow of water vapor in the volcano</t>
         </is>
       </c>
     </row>
@@ -851,12 +851,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ruiz snowy volcano a month of orange alert what happened</t>
+          <t>Nevado del Ruiz volcano live a month of orange alert what happened</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>The SGC Colombian geological service continues to monitor the Nevado del Ruiz volcano due to risk of eruption so its level of continuous activity in orangeeruption in days or weeks</t>
+          <t>The Colombian Geological Service SGC continues to monitor the Nevado del Ruiz volcano due to the risk of eruption, so its level of activity continues in orange All the indicators that the experts analyze confirm that the activity of the volcanic edifice continues to be very unstable but with the probability that it will rash over days or weeks</t>
         </is>
       </c>
     </row>
@@ -869,12 +869,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Nevado del Ruiz volcano live communities near the crater should be evacuated immediate</t>
+          <t>Nevado del Ruiz volcano live Communities near the crater must be evacuated immediately UNGRD recommends</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>The SGC Colombian Geological Service continues to monitor the Nevado del Ruiz volcano due to the risk of eruption, so its level of continuous activity in orangeof April</t>
+          <t>The Colombian Geological Service SGC continues to monitor the Nevado del Ruiz volcano due to the risk of eruption, so its level of activity continues in orange All the indicators that the experts analyze confirm that the activity of the volcanic edifice continues to be very unstable This is how it behaves this Saturday 29 of April</t>
         </is>
       </c>
     </row>
@@ -887,10 +887,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ruiz Nevado Volcán Live low the seismicity inside the volcanic building</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
+          <t>Live Nevado del Ruiz volcano lowers seismicity inside the volcanic building</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>The Colombian Geological Service SGC continues at orange or II activity level on the Nevado del Ruiz volcano due to the risk of eruption All the indicators analyzed by the experts confirm that the activity of the volcanic edifice continues to be very unstable</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -901,12 +905,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>The maintenance of the roads surrounding the Nevado del Ruiz volcano progresses</t>
+          <t>The maintenance of the roads that surround the Nevado del Ruiz volcano advances</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>The departments that have locations in the area of influence of the Nevado del Ruiz volcano advance in the preparation process against a possible eruption due to the level of orange activity in which the place is located</t>
+          <t>The departments that have locations in the area of ​​influence of the Nevado del Ruiz volcano are advancing in the preparation process for a possible eruption due to the level of orange activity in which the place is located</t>
         </is>
       </c>
     </row>
@@ -919,12 +923,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Snowy Ruiz volcano live increases seismic activity</t>
+          <t>Live Nevado del Ruiz volcano increases seismic activity</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>The Colombian Geological Service SGC maintains the orange alert on the Nevado Del Ruiz volcano due to the risk of eruption according to the analysis could be the largest emergency of the last ten years this has behaved this Thursday, April 27, April 27</t>
+          <t>The Colombian Geological Service SGC maintains the orange alert on the Nevado del Ruiz volcano due to the risk of eruption According to the analyzes it could be the biggest emergency in the last ten years This is how it behaved this Thursday, April 27</t>
         </is>
       </c>
     </row>
@@ -937,12 +941,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Mhoni Vidente makes a surprising prediction about Nevado del Ruiz for 2023 is the year of volcanoes</t>
+          <t>Mhoni Vidente makes a surprising prediction about Nevado del Ruiz for 2023 It is the year of volcanoes</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Mhoni seer has undoubtedly become one of the most famous tarotistas and seers throughout Latin America as a result of the contents it generates in the different social networks and the predictions he has made in recent times as the death of Joan Sebastian's son</t>
+          <t>Mhoni Seer has undoubtedly become one of the most famous tarot readers and seers in all of Latin America as a result of the content she generates on different social networks and the predictions she has made in recent times, such as the death of Joan Sebastian's son.</t>
         </is>
       </c>
     </row>
@@ -955,12 +959,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>These are the alerts of the ideam by lahares for the tributaries born in the Nevado del Ruiz volcano</t>
+          <t>These are the Ideam alerts for lahars for the tributaries that are born in the Nevado del Ruiz volcano</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>The Colombian Geological Service continues to monitor the behavior of the Nevado Volcano of the Ruiz that has the level of activity in orange or II which indicates probable eruption in the term of days or weeks</t>
+          <t>The Colombian Geological Service continues to monitor the behavior of the Nevado del Ruiz volcano, which has an orange or II level of activity, which indicates a probable eruption within days or weeks.</t>
         </is>
       </c>
     </row>
@@ -973,12 +977,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>VOLCÁN NEVADO DEL RUIZ LIVE Verify the response capacity of the municipalities in the area of influence</t>
+          <t>Live Nevado del Ruiz volcano verifies the response capacity of the municipalities in the area of ​​influence</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>The Nevado del Ruiz volcano remains on an orange alert due to the probability of making the largest eruption of the last ten years while the communities are ready to face the possible emergency, experts do not raise the magnifying glass on their activity, thus has behaved this Wednesday 26 ofApril</t>
+          <t>The Nevado del Ruiz volcano remains on orange alert due to the probability of making the largest eruption in the last ten years While the communities get ready to face the possible emergency, the experts do not raise the magnifying glass on its activity This is how it behaved this Wednesday, December 26 April</t>
         </is>
       </c>
     </row>
@@ -991,12 +995,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>By activity of the Nevado del Ruiz volcano enable new UCI beds in Caldas</t>
+          <t>Due to the activity of the Nevado del Ruiz volcano, new ICU beds are enabled in Caldas</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>The preparation in Caldas progresses before a possible eruption of the Nevado del Ruiz volcano which was declared at the level of activity II or orange since March 30 by the Colombian Geological Service</t>
+          <t>Preparations are advancing in Caldas for a possible eruption of the Nevado del Ruiz volcano, which was declared activity level II or orange since March 30 by the Colombian Geological Service</t>
         </is>
       </c>
     </row>
@@ -1009,12 +1013,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Colombian Red Cross will implement a community alert system due to the activity of the Nevado del Ruiz volcano</t>
+          <t>Colombian Red Cross will implement a community alert system for the activity of the Nevado del Ruiz volcano</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>The preparation in Colombia continues and in a special way in the area of influence of the Nevado del Ruiz volcano this before a possible eruption of it taking into account that the level of activity in II or orange is maintained</t>
+          <t>The preparation continues in Colombia and especially in the area of ​​influence of the Nevado del Ruiz volcano, this in the face of a possible eruption of the same, taking into account that the level of activity is maintained at II or orange</t>
         </is>
       </c>
     </row>
@@ -1027,12 +1031,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Colombian Geological Service insists at risk of eruption of the Nevado del Ruiz volcano</t>
+          <t>Colombian Geological Service insists on the risk of eruption of the Nevado del Ruiz volcano</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>The SGC Colombian Geological Service shared a new extraordinary report on the behavior of the Nevado del Ruiz volcano, the findings continue to show elements to the possible eruption that could be given in the coffee axis in a matter of days or weeks</t>
+          <t>The Colombian Geological Service SGC shared a new extraordinary report on the behavior of the Nevado del Ruiz volcano. The findings continue to show elements of a possible eruption that could occur in the Coffee Region in a matter of days or weeks</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1049,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Possible eruption of the Nevado del Ruiz would generate a chain reaction and activate other volcanoes here the answer</t>
+          <t>Possible eruption of Nevado del Ruiz would generate a chain reaction and activate other volcanoes Here is the answer</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1061,10 +1065,14 @@
 </t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Nevado del Ruiz volcano live 22 municipalities with high threat before possible eruption</t>
+        </is>
+      </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>The SGC Colombian Geological Service reported that the activity of the Nevado del Ruiz volcano remains unstable, so it is important</t>
+          <t>The Colombian Geological Service SGC reported that the activity of the Nevado del Ruiz volcano is still unstable, so it is important to have the orange alert active, which warns of an eruption in days or weeks. According to the analyzes, it would be the largest in recent years.</t>
         </is>
       </c>
     </row>
@@ -1077,12 +1085,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nevado del Ruiz Volcano Internet failures and massive rays are signs of eruption</t>
+          <t>Nevado del Ruiz volcano internet failures and massive lightning are signs of eruption</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>It is necessary to recognize the possibility of an eruption of the Nevado del Ruiz volcano is something that scares in a country like Colombia where there was an antecedent with the Tolimense population of Armero Pueblo that was literally buried by the Las Piedras mud and the hot lava</t>
+          <t>It must be recognized that the possibility of an eruption of the Nevado del Ruiz volcano is something scary in a country like Colombia where there was a precedent with the Tolima population of Armero, a town that was literally buried by mud, stones and hot lava.</t>
         </is>
       </c>
     </row>
@@ -1095,12 +1103,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nevado del Ruiz volcano live five photos of the unstable activity that threatens erupting</t>
+          <t>Nevado del Ruiz volcano live five photos of the unstable activity that threatens to erupt</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>The SGC Colombian Geological Service activated the orange level in the activity of the Nevado del Ruiz volcano on March 24 due to the probability of making the largest eruption of the last ten years since then the instability that led to the authorities to be on alert is maintainedmaximum</t>
+          <t>The Colombian Geological Service SGC activated the orange level on March 24 in the activity of the Nevado del Ruiz volcano due to the probability of making the largest eruption in the last ten years. Since then, the instability has been maintained that led the authorities to be on alert maximum</t>
         </is>
       </c>
     </row>
@@ -1113,12 +1121,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Nevado del Ruiz volcano report magnitude 17 in nearby municipality</t>
+          <t>Nevado del Ruiz volcano reports magnitude 17 earthquake in nearby municipality</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>In the last hours the Colombian geological service reported that the activity of the Nevado del Ruiz volcano is still very unstable persists the high temperatures at the bottom of the crater and emission of gases with all this the orange alert is maintained due to the risk of eruption in daysor weeks as noted since last March 30 of this year 2023 when alarms were lit in four departments for possible complications</t>
+          <t>In the last few hours, the Colombian Geological Service reported that the activity of the Nevado del Ruiz volcano continues to be very unstable. The earthquakes persist, high temperatures at the bottom of the crater and gas emissions. With all this, the orange alert is maintained due to the risk of eruption in days or weeks as has been warned since last March 30 of this year 2023 when the alarms went off in four departments due to possible complications</t>
         </is>
       </c>
     </row>
@@ -1131,12 +1139,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Nevado volcano of the Ruiz Orange alert will remain for several weeks</t>
+          <t>Nevado del Ruiz volcano orange alert will be maintained for several weeks</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>The Colombian geological service reported that the activity of the Nevado del Ruiz volcano remains very unstable persists the high temperatures at the bottom of the crater and gas emission</t>
+          <t>The Colombian Geological Service reported that the activity of the Nevado del Ruiz volcano continues to be very unstable Earthquakes persist, high temperatures at the bottom of the crater and gas emissions</t>
         </is>
       </c>
     </row>
@@ -1147,8 +1155,16 @@
 </t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Nevado del Ruiz Volcano Geological Service explains what unstable activity means</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>The activity of the Nevado del Ruiz Volcano continues to change constantly after 25 days in which the Colombian Geological Service activated the Orange Alert. This Monday they issued a new bulletin in which the information was broken down with the variations that the volcano has had</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
